--- a/code/applications/depression/Incidence Rates.xlsx
+++ b/code/applications/depression/Incidence Rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ruchita/Documents/JHU/HIV Compartmental Model/ending_hiv/code/applications/depression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CD3666-A395-1141-B681-DFC32E29B1E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A89BD4-F300-534F-B48F-DD7553A32C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18940" windowHeight="16340" xr2:uid="{269B104F-A5A2-A94F-B526-06E145BFA4AD}"/>
+    <workbookView xWindow="9980" yWindow="460" windowWidth="14960" windowHeight="16340" xr2:uid="{269B104F-A5A2-A94F-B526-06E145BFA4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
   <si>
     <t xml:space="preserve">Incidence Rates </t>
   </si>
@@ -267,7 +267,115 @@
     <t>Ratio Gay/Straight</t>
   </si>
   <si>
+    <t>Male Gay 18-25</t>
+  </si>
+  <si>
     <t>Hispanic 18-25</t>
+  </si>
+  <si>
+    <t>Age+Race+IDU+Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender, Never, IDU, Race </t>
+  </si>
+  <si>
+    <t>Male, 18-25, White, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, 26-34, White, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, 35-49, White, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, 50+, White, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, 18-25, Black, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, 26-34, Black, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, 35-49, Black, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, 50+, Black, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, 18-25, Hispanic, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, 26-34, Hispanic, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, 35-49, Hispanic, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, 50+, Hispanic, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 18-25, White, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 26-34, White, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 35-49, White, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 50+, White, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 18-25, Black, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 26-34, Black, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 35-49, Black, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 50+, Black, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 18-25, Hispanic, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 26-34, Hispanic, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 35-49, Hispanic, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 50+, Hispanic, Never IDU</t>
+  </si>
+  <si>
+    <t>Ratios</t>
+  </si>
+  <si>
+    <t>Male, 18-25, Active IDU/Male, 18-25, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, 18-25, Prev IDU/Male, 18-25, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, Otherwise, Active IDU/Male, Otherwise, Never IDU</t>
+  </si>
+  <si>
+    <t>Male, Otherwise, Prev IDU/Male, Otherwise, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 18-25, Active IDU/Female, 18-25, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, 18-25, Prev IDU/Female 18-25, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, Otherwise, Active IDU/Female, Otherwise, Never IDU</t>
+  </si>
+  <si>
+    <t>Female, Otherwise, Prev IDU/Female, Otherwise, Never IDU</t>
   </si>
 </sst>
 </file>
@@ -628,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC7C9D2-68E5-DA48-98C0-7EC9CD3419CD}">
-  <dimension ref="A1:AX30"/>
+  <dimension ref="A1:AX52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1156,7 @@
         <v>37</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>40</v>
@@ -1569,6 +1677,252 @@
         <v>2.108974358974359</v>
       </c>
     </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1.17</v>
+      </c>
+      <c r="B37">
+        <v>0.84</v>
+      </c>
+      <c r="C37">
+        <v>0.84</v>
+      </c>
+      <c r="D37">
+        <v>0.84</v>
+      </c>
+      <c r="G37" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37">
+        <f>13.16/7.55</f>
+        <v>1.7430463576158941</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38">
+        <f>1.15/7.55</f>
+        <v>0.15231788079470199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39">
+        <f>17.43/3.48</f>
+        <v>5.0086206896551726</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="B40">
+        <v>0.52</v>
+      </c>
+      <c r="C40">
+        <v>0.52</v>
+      </c>
+      <c r="D40">
+        <v>0.52</v>
+      </c>
+      <c r="G40" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40">
+        <f>7.76/3.48</f>
+        <v>2.2298850574712645</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42">
+        <f>35.19/12.62</f>
+        <v>2.7884310618066559</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.82</v>
+      </c>
+      <c r="B43">
+        <v>0.59</v>
+      </c>
+      <c r="C43">
+        <v>0.59</v>
+      </c>
+      <c r="D43">
+        <v>0.59</v>
+      </c>
+      <c r="G43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43">
+        <f>10.11/12.62</f>
+        <v>0.8011093502377179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44">
+        <f>17.43/3.48</f>
+        <v>5.0086206896551726</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45">
+        <f>7.76/3.48</f>
+        <v>2.2298850574712645</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1.27</v>
+      </c>
+      <c r="B46">
+        <v>1.54</v>
+      </c>
+      <c r="C46">
+        <v>1.54</v>
+      </c>
+      <c r="D46">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B49">
+        <v>1.4</v>
+      </c>
+      <c r="C49">
+        <v>1.4</v>
+      </c>
+      <c r="D49">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.84</v>
+      </c>
+      <c r="B52">
+        <v>1.06</v>
+      </c>
+      <c r="C52">
+        <v>1.06</v>
+      </c>
+      <c r="D52">
+        <v>1.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/applications/depression/Incidence Rates.xlsx
+++ b/code/applications/depression/Incidence Rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ruchita/Documents/JHU/HIV Compartmental Model/ending_hiv/code/applications/depression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A89BD4-F300-534F-B48F-DD7553A32C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AA8287-5DF1-BF45-ADA2-3E33E8862460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="460" windowWidth="14960" windowHeight="16340" xr2:uid="{269B104F-A5A2-A94F-B526-06E145BFA4AD}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="14960" windowHeight="16240" xr2:uid="{269B104F-A5A2-A94F-B526-06E145BFA4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:AX52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
